--- a/raw_data/20200818_saline/20200818_Sensor0_Test_92.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_92.xlsx
@@ -1,780 +1,1196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB2C8F-FACB-4498-98E1-A157CA48121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>81902.914619</v>
+        <v>81902.914619000003</v>
       </c>
       <c r="B2" s="1">
-        <v>22.750810</v>
+        <v>22.750810000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>909.217000</v>
+        <v>909.21699999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.844000</v>
+        <v>-195.84399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>81913.304812</v>
+        <v>81913.304812000002</v>
       </c>
       <c r="G2" s="1">
-        <v>22.753696</v>
+        <v>22.753696000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>925.897000</v>
+        <v>925.89700000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.901000</v>
+        <v>-166.90100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>81924.117104</v>
+        <v>81924.117104000004</v>
       </c>
       <c r="L2" s="1">
-        <v>22.756699</v>
+        <v>22.756699000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>949.456000</v>
+        <v>949.45600000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.979000</v>
+        <v>-119.979</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>81934.570289</v>
+        <v>81934.570288999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.759603</v>
+        <v>22.759602999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>956.346000</v>
+        <v>956.346</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.768000</v>
+        <v>-104.768</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>81945.148499</v>
+        <v>81945.148499000003</v>
       </c>
       <c r="V2" s="1">
-        <v>22.762541</v>
+        <v>22.762540999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>963.123000</v>
+        <v>963.12300000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.798400</v>
+        <v>-90.798400000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>81955.805510</v>
+        <v>81955.805510000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.765502</v>
+        <v>22.765502000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>970.601000</v>
+        <v>970.601</v>
       </c>
       <c r="AC2" s="1">
-        <v>-81.071500</v>
+        <v>-81.0715</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>81965.842554</v>
+        <v>81965.842554000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.768290</v>
+        <v>22.76829</v>
       </c>
       <c r="AG2" s="1">
-        <v>975.720000</v>
+        <v>975.72</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.439100</v>
+        <v>-80.439099999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>81976.621115</v>
+        <v>81976.621115000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.771284</v>
+        <v>22.771284000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>983.766000</v>
+        <v>983.76599999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.851500</v>
+        <v>-87.851500000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>81987.194331</v>
+        <v>81987.194331000006</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.774221</v>
+        <v>22.774221000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>992.964000</v>
+        <v>992.96400000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>81997.949086</v>
+        <v>81997.949085999993</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.777208</v>
+        <v>22.777208000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.796000</v>
+        <v>-123.79600000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>82008.690975</v>
+        <v>82008.690975000005</v>
       </c>
       <c r="AZ2" s="1">
         <v>22.780192</v>
       </c>
       <c r="BA2" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.396000</v>
+        <v>-142.39599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>82019.282017</v>
+        <v>82019.282017000005</v>
       </c>
       <c r="BE2" s="1">
         <v>22.783134</v>
       </c>
       <c r="BF2" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.542000</v>
+        <v>-226.542</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>82030.355234</v>
+        <v>82030.355234000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.786210</v>
+        <v>22.786210000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1138.730000</v>
+        <v>1138.73</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.256000</v>
+        <v>-361.25599999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>82041.035557</v>
+        <v>82041.035556999996</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.789177</v>
+        <v>22.789176999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-568.649000</v>
+        <v>-568.649</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>82052.067084</v>
+        <v>82052.067083999995</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.792241</v>
+        <v>22.792241000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1416.390000</v>
+        <v>1416.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-789.638000</v>
+        <v>-789.63800000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>82062.883380</v>
+        <v>82062.883379999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.795245</v>
+        <v>22.795245000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1577.050000</v>
+        <v>1577.05</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1019.970000</v>
+        <v>-1019.97</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>82073.779978</v>
+        <v>82073.779978000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.798272</v>
+        <v>22.798272000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1979.200000</v>
+        <v>1979.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1558.570000</v>
+        <v>-1558.57</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>81903.278682</v>
+        <v>81903.278682000004</v>
       </c>
       <c r="B3" s="1">
-        <v>22.750911</v>
+        <v>22.750910999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>909.205000</v>
+        <v>909.20500000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.882000</v>
+        <v>-195.88200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>81914.036910</v>
+        <v>81914.036909999995</v>
       </c>
       <c r="G3" s="1">
-        <v>22.753899</v>
+        <v>22.753899000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>925.989000</v>
+        <v>925.98900000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.521000</v>
+        <v>-166.52099999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>81924.456863</v>
+        <v>81924.456862999999</v>
       </c>
       <c r="L3" s="1">
-        <v>22.756794</v>
+        <v>22.756793999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>949.480000</v>
+        <v>949.48</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.979000</v>
+        <v>-119.979</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>81934.949729</v>
@@ -783,103 +1199,103 @@
         <v>22.759708</v>
       </c>
       <c r="R3" s="1">
-        <v>956.330000</v>
+        <v>956.33</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.753000</v>
+        <v>-104.753</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>81945.502114</v>
+        <v>81945.502114000003</v>
       </c>
       <c r="V3" s="1">
         <v>22.762639</v>
       </c>
       <c r="W3" s="1">
-        <v>963.093000</v>
+        <v>963.09299999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.804800</v>
+        <v>-90.8048</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>81956.007380</v>
+        <v>81956.007379999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.765558</v>
+        <v>22.765557999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>970.631000</v>
+        <v>970.63099999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-81.091800</v>
+        <v>-81.091800000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>81966.538934</v>
+        <v>81966.538933999997</v>
       </c>
       <c r="AF3" s="1">
         <v>22.768483</v>
       </c>
       <c r="AG3" s="1">
-        <v>975.737000</v>
+        <v>975.73699999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.413800</v>
+        <v>-80.413799999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>81977.033289</v>
+        <v>81977.033288999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.771398</v>
+        <v>22.771398000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>983.780000</v>
+        <v>983.78</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.850300</v>
+        <v>-87.850300000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>81987.622883</v>
+        <v>81987.622883000004</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.774340</v>
+        <v>22.774339999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>992.962000</v>
+        <v>992.96199999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.524000</v>
+        <v>-102.524</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>81998.334478</v>
+        <v>81998.334478000004</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.777315</v>
+        <v>22.777315000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.808000</v>
+        <v>-123.80800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>82009.054032</v>
@@ -888,392 +1304,392 @@
         <v>22.780293</v>
       </c>
       <c r="BA3" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.381000</v>
+        <v>-142.381</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>82019.675376</v>
+        <v>82019.675375999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.783243</v>
+        <v>22.783242999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1059.230000</v>
+        <v>1059.23</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.520000</v>
+        <v>-226.52</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>82030.773331</v>
+        <v>82030.773331000004</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.786326</v>
+        <v>22.786325999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1138.720000</v>
+        <v>1138.72</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.198000</v>
+        <v>-361.19799999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>82041.469593</v>
+        <v>82041.469593000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.789297</v>
+        <v>22.789297000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1269.950000</v>
+        <v>1269.95</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-568.673000</v>
+        <v>-568.673</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>82052.206949</v>
+        <v>82052.206948999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.792280</v>
+        <v>22.792280000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1416.380000</v>
+        <v>1416.38</v>
       </c>
       <c r="BV3" s="1">
-        <v>-789.705000</v>
+        <v>-789.70500000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>82063.367431</v>
+        <v>82063.367431000006</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.795380</v>
+        <v>22.795380000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1577.070000</v>
+        <v>1577.07</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1020.030000</v>
+        <v>-1020.03</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>82074.373658</v>
+        <v>82074.373657999997</v>
       </c>
       <c r="CD3" s="1">
         <v>22.798437</v>
       </c>
       <c r="CE3" s="1">
-        <v>1980.910000</v>
+        <v>1980.91</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1557.570000</v>
+        <v>-1557.57</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>81903.960186</v>
+        <v>81903.960185999997</v>
       </c>
       <c r="B4" s="1">
-        <v>22.751100</v>
+        <v>22.751100000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>909.126000</v>
+        <v>909.12599999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.843000</v>
+        <v>-195.84299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>81914.380636</v>
+        <v>81914.380636000002</v>
       </c>
       <c r="G4" s="1">
         <v>22.753995</v>
       </c>
       <c r="H4" s="1">
-        <v>925.898000</v>
+        <v>925.89800000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.670000</v>
+        <v>-166.67</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>81924.802114</v>
+        <v>81924.802114000006</v>
       </c>
       <c r="L4" s="1">
-        <v>22.756889</v>
+        <v>22.756889000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>949.458000</v>
+        <v>949.45799999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.066000</v>
+        <v>-120.066</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>81935.302384</v>
+        <v>81935.302383999995</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.759806</v>
+        <v>22.759806000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>956.292000</v>
+        <v>956.29200000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.734000</v>
+        <v>-104.73399999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>81946.156852</v>
       </c>
       <c r="V4" s="1">
-        <v>22.762821</v>
+        <v>22.762820999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>963.161000</v>
+        <v>963.16099999999994</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.878800</v>
+        <v>-90.878799999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>81956.451301</v>
+        <v>81956.451300999994</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.765681</v>
+        <v>22.765681000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>970.707000</v>
+        <v>970.70699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-81.042500</v>
+        <v>-81.042500000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>81966.910935</v>
+        <v>81966.910935000007</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.768586</v>
+        <v>22.768585999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>975.687000</v>
+        <v>975.68700000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.378800</v>
+        <v>-80.378799999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>81977.382009</v>
+        <v>81977.382008999994</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.771495</v>
+        <v>22.771495000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>983.740000</v>
+        <v>983.74</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.840000</v>
+        <v>-87.84</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>81987.984458</v>
+        <v>81987.984458000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.774440</v>
+        <v>22.774439999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>992.983000</v>
+        <v>992.98299999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.499000</v>
+        <v>-102.499</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>81998.695564</v>
+        <v>81998.695563999994</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.777415</v>
+        <v>22.777415000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.802000</v>
+        <v>-123.80200000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>82009.475646</v>
+        <v>82009.475646000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.780410</v>
+        <v>22.78041</v>
       </c>
       <c r="BA4" s="1">
-        <v>1013.970000</v>
+        <v>1013.97</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.389000</v>
+        <v>-142.38900000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>82020.107855</v>
+        <v>82020.107854999995</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.783363</v>
+        <v>22.783363000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1059.230000</v>
+        <v>1059.23</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.533000</v>
+        <v>-226.53299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>82031.126481</v>
+        <v>82031.126480999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>22.786424</v>
       </c>
       <c r="BK4" s="1">
-        <v>1138.770000</v>
+        <v>1138.77</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.252000</v>
+        <v>-361.25200000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>82041.866355</v>
+        <v>82041.866355000006</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.789407</v>
+        <v>22.789407000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1269.970000</v>
+        <v>1269.97</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-568.666000</v>
+        <v>-568.66600000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>82052.622101</v>
+        <v>82052.622101000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.792395</v>
+        <v>22.792394999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1416.320000</v>
+        <v>1416.32</v>
       </c>
       <c r="BV4" s="1">
-        <v>-789.863000</v>
+        <v>-789.86300000000006</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>82063.816310</v>
+        <v>82063.816309999995</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.795505</v>
+        <v>22.795504999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1577.110000</v>
+        <v>1577.11</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1020.090000</v>
+        <v>-1020.09</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>82074.912807</v>
+        <v>82074.912807000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.798587</v>
+        <v>22.798587000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1979.230000</v>
+        <v>1979.23</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1558.030000</v>
+        <v>-1558.03</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>81904.310362</v>
+        <v>81904.310362000004</v>
       </c>
       <c r="B5" s="1">
-        <v>22.751197</v>
+        <v>22.751197000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>908.976000</v>
+        <v>908.976</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.826000</v>
+        <v>-195.82599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>81914.727339</v>
+        <v>81914.727339000005</v>
       </c>
       <c r="G5" s="1">
-        <v>22.754091</v>
+        <v>22.754090999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>926.190000</v>
+        <v>926.19</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.638000</v>
+        <v>-166.63800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>81925.470189</v>
@@ -1282,3399 +1698,3399 @@
         <v>22.757075</v>
       </c>
       <c r="M5" s="1">
-        <v>949.585000</v>
+        <v>949.58500000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.039000</v>
+        <v>-120.039</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>81935.965567</v>
+        <v>81935.965567000007</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.759990</v>
+        <v>22.759989999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>956.316000</v>
+        <v>956.31600000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.696000</v>
+        <v>-104.696</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>81946.534291</v>
+        <v>81946.534291000004</v>
       </c>
       <c r="V5" s="1">
         <v>22.762926</v>
       </c>
       <c r="W5" s="1">
-        <v>963.172000</v>
+        <v>963.17200000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.798400</v>
+        <v>-90.798400000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>81956.701316</v>
+        <v>81956.701316000006</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.765750</v>
+        <v>22.765750000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>970.585000</v>
+        <v>970.58500000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-81.079800</v>
+        <v>-81.079800000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>81967.255653</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.768682</v>
+        <v>22.768681999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>975.730000</v>
+        <v>975.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.350900</v>
+        <v>-80.350899999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>81977.731160</v>
+        <v>81977.731159999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.771592</v>
+        <v>22.771591999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>983.744000</v>
+        <v>983.74400000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.839500</v>
+        <v>-87.839500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>81988.343594</v>
+        <v>81988.343594000005</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.774540</v>
+        <v>22.774539999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>992.960000</v>
+        <v>992.96</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.512000</v>
+        <v>-102.512</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>81999.122467</v>
+        <v>81999.122466999994</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.777534</v>
+        <v>22.777533999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.809000</v>
+        <v>-123.809</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>82009.770237</v>
+        <v>82009.770237000004</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.780492</v>
+        <v>22.780491999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.398000</v>
+        <v>-142.398</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>82020.397024</v>
+        <v>82020.397024000005</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.783444</v>
+        <v>22.783443999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.526000</v>
+        <v>-226.52600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>82031.500481</v>
+        <v>82031.500480999995</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.786528</v>
+        <v>22.786528000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1138.690000</v>
+        <v>1138.69</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.249000</v>
+        <v>-361.24900000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>82042.289940</v>
+        <v>82042.289940000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.789525</v>
+        <v>22.789525000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-568.707000</v>
+        <v>-568.70699999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>82053.049156</v>
+        <v>82053.049155999994</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.792514</v>
+        <v>22.792514000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1416.450000</v>
+        <v>1416.45</v>
       </c>
       <c r="BV5" s="1">
-        <v>-789.976000</v>
+        <v>-789.976</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>82064.249964</v>
+        <v>82064.249964000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.795625</v>
+        <v>22.795625000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1577.210000</v>
+        <v>1577.21</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1019.990000</v>
+        <v>-1019.99</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>82075.454440</v>
+        <v>82075.454440000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.798737</v>
+        <v>22.798736999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1980.620000</v>
+        <v>1980.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1558.940000</v>
+        <v>-1558.94</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>81904.966074</v>
+        <v>81904.966073999996</v>
       </c>
       <c r="B6" s="1">
         <v>22.751379</v>
       </c>
       <c r="C6" s="1">
-        <v>909.068000</v>
+        <v>909.06799999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.861000</v>
+        <v>-195.86099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>81915.387053</v>
+        <v>81915.387052999999</v>
       </c>
       <c r="G6" s="1">
-        <v>22.754274</v>
+        <v>22.754273999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>926.578000</v>
+        <v>926.57799999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.539000</v>
+        <v>-166.53899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>81925.842699</v>
+        <v>81925.842699000001</v>
       </c>
       <c r="L6" s="1">
-        <v>22.757179</v>
+        <v>22.757179000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>949.530000</v>
+        <v>949.53</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.953000</v>
+        <v>-119.953</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>81936.342031</v>
+        <v>81936.342030999993</v>
       </c>
       <c r="Q6" s="1">
         <v>22.760095</v>
       </c>
       <c r="R6" s="1">
-        <v>956.329000</v>
+        <v>956.32899999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.702000</v>
+        <v>-104.702</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>81946.886945</v>
+        <v>81946.886945000006</v>
       </c>
       <c r="V6" s="1">
-        <v>22.763024</v>
+        <v>22.763024000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>963.243000</v>
+        <v>963.24300000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.926000</v>
+        <v>-90.926000000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>81957.049971</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.765847</v>
+        <v>22.765847000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>970.601000</v>
+        <v>970.601</v>
       </c>
       <c r="AC6" s="1">
-        <v>-81.037700</v>
+        <v>-81.037700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>81967.599893</v>
+        <v>81967.599893000006</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.768778</v>
+        <v>22.768778000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>975.696000</v>
+        <v>975.69600000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.458500</v>
+        <v>-80.458500000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>81978.158248</v>
+        <v>81978.158248000007</v>
       </c>
       <c r="AK6" s="1">
         <v>22.771711</v>
       </c>
       <c r="AL6" s="1">
-        <v>983.782000</v>
+        <v>983.78200000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.850400</v>
+        <v>-87.850399999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>81988.769625</v>
+        <v>81988.769625000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.774658</v>
+        <v>22.774657999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>992.972000</v>
+        <v>992.97199999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.515000</v>
+        <v>-102.515</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>81999.428684</v>
+        <v>81999.428683999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.777619</v>
+        <v>22.777619000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>82010.130334</v>
+        <v>82010.130334000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.780592</v>
+        <v>22.780591999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.381000</v>
+        <v>-142.381</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>82020.758607</v>
+        <v>82020.758606999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.783544</v>
+        <v>22.783543999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.548000</v>
+        <v>-226.548</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>82031.875442</v>
+        <v>82031.875442000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.786632</v>
+        <v>22.786632000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1138.790000</v>
+        <v>1138.79</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.271000</v>
+        <v>-361.27100000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>82043.030962</v>
+        <v>82043.030962000004</v>
       </c>
       <c r="BO6" s="1">
         <v>22.789731</v>
       </c>
       <c r="BP6" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-568.691000</v>
+        <v>-568.69100000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>82053.470260</v>
+        <v>82053.470260000002</v>
       </c>
       <c r="BT6" s="1">
         <v>22.792631</v>
       </c>
       <c r="BU6" s="1">
-        <v>1416.450000</v>
+        <v>1416.45</v>
       </c>
       <c r="BV6" s="1">
-        <v>-790.024000</v>
+        <v>-790.024</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>82064.660997</v>
+        <v>82064.660996999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.795739</v>
+        <v>22.795739000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1576.990000</v>
+        <v>1576.99</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1020.060000</v>
+        <v>-1020.06</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>82075.992104</v>
+        <v>82075.992104000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.798887</v>
+        <v>22.798887000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1979.390000</v>
+        <v>1979.39</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1557.000000</v>
+        <v>-1557</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>81905.332656</v>
+        <v>81905.332655999999</v>
       </c>
       <c r="B7" s="1">
-        <v>22.751481</v>
+        <v>22.751480999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>908.951000</v>
+        <v>908.95100000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.827000</v>
+        <v>-195.827</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>81915.766458</v>
+        <v>81915.766457999998</v>
       </c>
       <c r="G7" s="1">
-        <v>22.754380</v>
+        <v>22.754380000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>926.152000</v>
+        <v>926.15200000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.788000</v>
+        <v>-166.78800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>81926.185916</v>
+        <v>81926.185916000002</v>
       </c>
       <c r="L7" s="1">
-        <v>22.757274</v>
+        <v>22.757273999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>949.453000</v>
+        <v>949.45299999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.096000</v>
+        <v>-120.096</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>81936.694158</v>
+        <v>81936.694157999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.760193</v>
+        <v>22.760193000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>956.357000</v>
+        <v>956.35699999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.717000</v>
+        <v>-104.717</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>81947.228192</v>
+        <v>81947.228191999995</v>
       </c>
       <c r="V7" s="1">
         <v>22.763119</v>
       </c>
       <c r="W7" s="1">
-        <v>963.219000</v>
+        <v>963.21900000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.896100</v>
+        <v>-90.896100000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>81957.472098</v>
+        <v>81957.472097999998</v>
       </c>
       <c r="AA7" s="1">
         <v>22.765964</v>
       </c>
       <c r="AB7" s="1">
-        <v>970.650000</v>
+        <v>970.65</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.965300</v>
+        <v>-80.965299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>81968.035365</v>
+        <v>81968.035365000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.768899</v>
+        <v>22.768899000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>975.735000</v>
+        <v>975.73500000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.382100</v>
+        <v>-80.382099999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>81978.431015</v>
+        <v>81978.431014999995</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.771786</v>
+        <v>22.771785999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>983.762000</v>
+        <v>983.76199999999994</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.848700</v>
+        <v>-87.848699999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>81989.053833</v>
+        <v>81989.053832999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.774737</v>
+        <v>22.774736999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>992.957000</v>
+        <v>992.95699999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.514000</v>
+        <v>-102.514</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>81999.789739</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.777719</v>
+        <v>22.777719000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.818000</v>
+        <v>-123.818</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>82010.488023</v>
+        <v>82010.488022999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.780691</v>
+        <v>22.780691000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1013.940000</v>
+        <v>1013.94</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.372000</v>
+        <v>-142.37200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>82021.118240</v>
+        <v>82021.118239999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.783644</v>
+        <v>22.783643999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.537000</v>
+        <v>-226.53700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>82032.294065</v>
+        <v>82032.294064999995</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.786748</v>
+        <v>22.786747999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1138.710000</v>
+        <v>1138.71</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.255000</v>
+        <v>-361.255</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>82043.476369</v>
+        <v>82043.476368999996</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.789855</v>
+        <v>22.789854999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-568.721000</v>
+        <v>-568.721</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>82053.878963</v>
+        <v>82053.878962999996</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.792744</v>
+        <v>22.792743999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1416.540000</v>
+        <v>1416.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-790.075000</v>
+        <v>-790.07500000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>82065.086069</v>
+        <v>82065.086068999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.795857</v>
+        <v>22.795857000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1577.070000</v>
+        <v>1577.07</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1020.130000</v>
+        <v>-1020.13</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>82076.533733</v>
+        <v>82076.533733000004</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.799037</v>
+        <v>22.799036999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1979.750000</v>
+        <v>1979.75</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1559.000000</v>
+        <v>-1559</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>81905.683815</v>
+        <v>81905.683814999997</v>
       </c>
       <c r="B8" s="1">
         <v>22.751579</v>
       </c>
       <c r="C8" s="1">
-        <v>909.133000</v>
+        <v>909.13300000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.853000</v>
+        <v>-195.85300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>81916.113163</v>
+        <v>81916.113163000002</v>
       </c>
       <c r="G8" s="1">
         <v>22.754476</v>
       </c>
       <c r="H8" s="1">
-        <v>926.224000</v>
+        <v>926.22400000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.553000</v>
+        <v>-166.553</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>81926.531627</v>
+        <v>81926.531627000004</v>
       </c>
       <c r="L8" s="1">
-        <v>22.757370</v>
+        <v>22.757370000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>949.448000</v>
+        <v>949.44799999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.105000</v>
+        <v>-120.105</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>81937.044333</v>
+        <v>81937.044332999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.760290</v>
+        <v>22.760290000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>956.342000</v>
+        <v>956.34199999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.750000</v>
+        <v>-104.75</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>81947.657727</v>
+        <v>81947.657726999998</v>
       </c>
       <c r="V8" s="1">
-        <v>22.763238</v>
+        <v>22.763238000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>963.088000</v>
+        <v>963.08799999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.921300</v>
+        <v>-90.921300000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>81957.749826</v>
+        <v>81957.749825999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.766042</v>
+        <v>22.766041999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>970.708000</v>
+        <v>970.70799999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-81.058900</v>
+        <v>-81.058899999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>81968.312629</v>
+        <v>81968.312628999993</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.768976</v>
+        <v>22.768975999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>975.704000</v>
+        <v>975.70399999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.393200</v>
+        <v>-80.393199999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>81978.778710</v>
+        <v>81978.778709999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.771883</v>
+        <v>22.771882999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>983.764000</v>
+        <v>983.76400000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.837600</v>
+        <v>-87.837599999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>81989.423850</v>
+        <v>81989.423850000006</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.774840</v>
+        <v>22.774840000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>992.969000</v>
+        <v>992.96900000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.527000</v>
+        <v>-102.527</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>82000.157771</v>
+        <v>82000.157770999998</v>
       </c>
       <c r="AU8" s="1">
         <v>22.777822</v>
       </c>
       <c r="AV8" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.787000</v>
+        <v>-123.78700000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>82011.206688</v>
+        <v>82011.206688000006</v>
       </c>
       <c r="AZ8" s="1">
         <v>22.780891</v>
       </c>
       <c r="BA8" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.367000</v>
+        <v>-142.36699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>82021.851816</v>
+        <v>82021.851815999995</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.783848</v>
+        <v>22.783847999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.533000</v>
+        <v>-226.53299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>82032.653665</v>
+        <v>82032.653665000005</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.786848</v>
+        <v>22.786847999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1138.770000</v>
+        <v>1138.77</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.196000</v>
+        <v>-361.19600000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>82043.889042</v>
+        <v>82043.889041999995</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.789969</v>
+        <v>22.789968999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-568.737000</v>
+        <v>-568.73699999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>82054.289187</v>
+        <v>82054.289187000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.792858</v>
+        <v>22.792857999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1416.600000</v>
+        <v>1416.6</v>
       </c>
       <c r="BV8" s="1">
-        <v>-790.104000</v>
+        <v>-790.10400000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>82065.818163</v>
+        <v>82065.818163000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.796061</v>
+        <v>22.796061000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1577.190000</v>
+        <v>1577.19</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1020.060000</v>
+        <v>-1020.06</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>82077.415310</v>
+        <v>82077.415309999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.799282</v>
+        <v>22.799282000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1557.780000</v>
+        <v>-1557.78</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>81906.023046</v>
+        <v>81906.023046000002</v>
       </c>
       <c r="B9" s="1">
         <v>22.751673</v>
       </c>
       <c r="C9" s="1">
-        <v>909.213000</v>
+        <v>909.21299999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.774000</v>
+        <v>-195.774</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>81916.456889</v>
+        <v>81916.456888999994</v>
       </c>
       <c r="G9" s="1">
-        <v>22.754571</v>
+        <v>22.754570999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>926.202000</v>
+        <v>926.202</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.725000</v>
+        <v>-166.72499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>81926.952235</v>
+        <v>81926.952235000004</v>
       </c>
       <c r="L9" s="1">
-        <v>22.757487</v>
+        <v>22.757487000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>949.413000</v>
+        <v>949.41300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.074000</v>
+        <v>-120.074</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>81937.500157</v>
+        <v>81937.500157000002</v>
       </c>
       <c r="Q9" s="1">
         <v>22.760417</v>
       </c>
       <c r="R9" s="1">
-        <v>956.329000</v>
+        <v>956.32899999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.779000</v>
+        <v>-104.779</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>81947.928080</v>
+        <v>81947.928079999998</v>
       </c>
       <c r="V9" s="1">
         <v>22.763313</v>
       </c>
       <c r="W9" s="1">
-        <v>963.135000</v>
+        <v>963.13499999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.884000</v>
+        <v>-90.884</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>81958.094547</v>
+        <v>81958.094547000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.766137</v>
+        <v>22.766137000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>970.603000</v>
+        <v>970.60299999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-81.068900</v>
+        <v>-81.068899999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>81968.659332</v>
+        <v>81968.659331999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.769072</v>
+        <v>22.769072000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>975.799000</v>
+        <v>975.79899999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.409700</v>
+        <v>-80.409700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>81979.128923</v>
+        <v>81979.128922999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.771980</v>
+        <v>22.771979999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>983.754000</v>
+        <v>983.75400000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.845300</v>
+        <v>-87.845299999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>81989.785431</v>
+        <v>81989.785430999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.774940</v>
+        <v>22.774940000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>992.946000</v>
+        <v>992.94600000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.515000</v>
+        <v>-102.515</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>82000.886393</v>
+        <v>82000.886392999993</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.778024</v>
+        <v>22.778023999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.795000</v>
+        <v>-123.795</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>82011.566251</v>
+        <v>82011.566250999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>22.780991</v>
       </c>
       <c r="BA9" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.378000</v>
+        <v>-142.37799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>82022.226767</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.783952</v>
+        <v>22.783951999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1059.260000</v>
+        <v>1059.26</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.537000</v>
+        <v>-226.53700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>82033.031119</v>
+        <v>82033.031119000007</v>
       </c>
       <c r="BJ9" s="1">
         <v>22.786953</v>
       </c>
       <c r="BK9" s="1">
-        <v>1138.740000</v>
+        <v>1138.74</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.282000</v>
+        <v>-361.28199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>82044.591906</v>
+        <v>82044.591906000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.790164</v>
+        <v>22.790164000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-568.717000</v>
+        <v>-568.71699999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>82055.023235</v>
+        <v>82055.023235000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.793062</v>
+        <v>22.793061999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1416.720000</v>
+        <v>1416.72</v>
       </c>
       <c r="BV9" s="1">
-        <v>-790.133000</v>
+        <v>-790.13300000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>82065.949711</v>
+        <v>82065.949710999994</v>
       </c>
       <c r="BY9" s="1">
         <v>22.796097</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1577.120000</v>
+        <v>1577.12</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1019.910000</v>
+        <v>-1019.91</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>82077.610548</v>
+        <v>82077.610547999997</v>
       </c>
       <c r="CD9" s="1">
         <v>22.799336</v>
       </c>
       <c r="CE9" s="1">
-        <v>1978.720000</v>
+        <v>1978.72</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1557.680000</v>
+        <v>-1557.68</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>81906.455062</v>
+        <v>81906.455061999994</v>
       </c>
       <c r="B10" s="1">
-        <v>22.751793</v>
+        <v>22.751792999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>909.152000</v>
+        <v>909.15200000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.781000</v>
+        <v>-195.78100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>81916.884473</v>
+        <v>81916.884472999998</v>
       </c>
       <c r="G10" s="1">
-        <v>22.754690</v>
+        <v>22.75469</v>
       </c>
       <c r="H10" s="1">
-        <v>926.392000</v>
+        <v>926.39200000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.801000</v>
+        <v>-166.80099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>81927.226524</v>
+        <v>81927.226523999998</v>
       </c>
       <c r="L10" s="1">
-        <v>22.757563</v>
+        <v>22.757563000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>949.388000</v>
+        <v>949.38800000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.180000</v>
+        <v>-120.18</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>81937.756588</v>
+        <v>81937.756588000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.760488</v>
+        <v>22.760487999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>956.299000</v>
+        <v>956.29899999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.690000</v>
+        <v>-104.69</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>81948.268303</v>
+        <v>81948.268303000004</v>
       </c>
       <c r="V10" s="1">
-        <v>22.763408</v>
+        <v>22.763407999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>963.084000</v>
+        <v>963.08399999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.822400</v>
+        <v>-90.822400000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>81958.444226</v>
+        <v>81958.444226000007</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.766235</v>
+        <v>22.766235000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>970.640000</v>
+        <v>970.64</v>
       </c>
       <c r="AC10" s="1">
-        <v>-81.071700</v>
+        <v>-81.071700000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>81968.999588</v>
+        <v>81968.999588000006</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.769167</v>
+        <v>22.769166999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>975.727000</v>
+        <v>975.72699999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.293900</v>
+        <v>-80.293899999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>81979.826262</v>
+        <v>81979.826262000002</v>
       </c>
       <c r="AK10" s="1">
         <v>22.772174</v>
       </c>
       <c r="AL10" s="1">
-        <v>983.756000</v>
+        <v>983.75599999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.843400</v>
+        <v>-87.843400000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>81990.503143</v>
+        <v>81990.503142999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.775140</v>
+        <v>22.77514</v>
       </c>
       <c r="AQ10" s="1">
-        <v>992.969000</v>
+        <v>992.96900000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.504000</v>
+        <v>-102.504</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>82001.273273</v>
+        <v>82001.273272999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.778131</v>
+        <v>22.778130999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.807000</v>
+        <v>-123.807</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>82011.922874</v>
+        <v>82011.922873999996</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.781090</v>
+        <v>22.781089999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1013.960000</v>
+        <v>1013.96</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.396000</v>
+        <v>-142.39599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>82022.586365</v>
+        <v>82022.586364999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.784052</v>
+        <v>22.784051999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.538000</v>
+        <v>-226.53800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>82033.717583</v>
+        <v>82033.717583000005</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.787144</v>
+        <v>22.787144000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1138.770000</v>
+        <v>1138.77</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.202000</v>
+        <v>-361.202</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>82044.709425</v>
+        <v>82044.709424999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.790197</v>
+        <v>22.790196999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1269.930000</v>
+        <v>1269.93</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-568.709000</v>
+        <v>-568.70899999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>82055.146279</v>
+        <v>82055.146278999993</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.793096</v>
+        <v>22.793095999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1416.900000</v>
+        <v>1416.9</v>
       </c>
       <c r="BV10" s="1">
-        <v>-790.101000</v>
+        <v>-790.101</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>82066.371699</v>
+        <v>82066.371698999996</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.796214</v>
+        <v>22.796213999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1576.990000</v>
+        <v>1576.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1020.050000</v>
+        <v>-1020.05</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>82078.129364</v>
+        <v>82078.129363999993</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.799480</v>
+        <v>22.799479999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1979.690000</v>
+        <v>1979.69</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1559.090000</v>
+        <v>-1559.09</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>81906.721948</v>
+        <v>81906.721948000006</v>
       </c>
       <c r="B11" s="1">
-        <v>22.751867</v>
+        <v>22.751867000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>908.923000</v>
+        <v>908.923</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.795000</v>
+        <v>-195.79499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>81917.154265</v>
+        <v>81917.154265000005</v>
       </c>
       <c r="G11" s="1">
-        <v>22.754765</v>
+        <v>22.754764999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>925.848000</v>
+        <v>925.84799999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.065000</v>
+        <v>-166.065</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>81927.571242</v>
+        <v>81927.571242000005</v>
       </c>
       <c r="L11" s="1">
         <v>22.757659</v>
       </c>
       <c r="M11" s="1">
-        <v>949.458000</v>
+        <v>949.45799999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.065000</v>
+        <v>-120.065</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>81938.107756</v>
+        <v>81938.107755999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.760585</v>
+        <v>22.760584999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>956.297000</v>
+        <v>956.29700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.761000</v>
+        <v>-104.761</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>81948.614015</v>
+        <v>81948.614014999999</v>
       </c>
       <c r="V11" s="1">
-        <v>22.763504</v>
+        <v>22.763504000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>963.171000</v>
+        <v>963.17100000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.816000</v>
+        <v>-90.816000000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>81959.141602</v>
+        <v>81959.141602000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.766428</v>
+        <v>22.766428000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>970.584000</v>
+        <v>970.58399999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-81.025100</v>
+        <v>-81.025099999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>81969.686579</v>
+        <v>81969.686579000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.769357</v>
+        <v>22.769356999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>975.623000</v>
+        <v>975.62300000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.444700</v>
+        <v>-80.444699999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>81980.175482</v>
+        <v>81980.175482000006</v>
       </c>
       <c r="AK11" s="1">
         <v>22.772271</v>
       </c>
       <c r="AL11" s="1">
-        <v>983.752000</v>
+        <v>983.75199999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.839200</v>
+        <v>-87.839200000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>81990.889030</v>
+        <v>81990.889030000006</v>
       </c>
       <c r="AP11" s="1">
         <v>22.775247</v>
       </c>
       <c r="AQ11" s="1">
-        <v>992.975000</v>
+        <v>992.97500000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.514000</v>
+        <v>-102.514</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>82001.637832</v>
+        <v>82001.637831999993</v>
       </c>
       <c r="AU11" s="1">
         <v>22.778233</v>
       </c>
       <c r="AV11" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.820000</v>
+        <v>-123.82</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>82012.596939</v>
+        <v>82012.596938999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.781277</v>
+        <v>22.781276999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.392000</v>
+        <v>-142.392</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>82023.274812</v>
+        <v>82023.274812000003</v>
       </c>
       <c r="BE11" s="1">
         <v>22.784243</v>
       </c>
       <c r="BF11" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.540000</v>
+        <v>-226.54</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>82034.155066</v>
+        <v>82034.155066000007</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.787265</v>
+        <v>22.787265000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1138.740000</v>
+        <v>1138.74</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.250000</v>
+        <v>-361.25</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>82045.133998</v>
+        <v>82045.133998000005</v>
       </c>
       <c r="BO11" s="1">
         <v>22.790315</v>
       </c>
       <c r="BP11" s="1">
-        <v>1269.900000</v>
+        <v>1269.9000000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-568.700000</v>
+        <v>-568.70000000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>82055.585801</v>
+        <v>82055.585800999994</v>
       </c>
       <c r="BT11" s="1">
         <v>22.793218</v>
       </c>
       <c r="BU11" s="1">
-        <v>1416.960000</v>
+        <v>1416.96</v>
       </c>
       <c r="BV11" s="1">
-        <v>-790.123000</v>
+        <v>-790.12300000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>82066.797763</v>
+        <v>82066.797762999995</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.796333</v>
+        <v>22.796333000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1577.120000</v>
+        <v>1577.12</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1020.090000</v>
+        <v>-1020.09</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>82078.645235</v>
+        <v>82078.645235000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.799624</v>
+        <v>22.799624000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1978.960000</v>
+        <v>1978.96</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1558.450000</v>
+        <v>-1558.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>81907.064677</v>
+        <v>81907.064677000002</v>
       </c>
       <c r="B12" s="1">
-        <v>22.751962</v>
+        <v>22.751961999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>909.217000</v>
+        <v>909.21699999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.940000</v>
+        <v>-195.94</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>81917.497497</v>
+        <v>81917.497497000004</v>
       </c>
       <c r="G12" s="1">
-        <v>22.754860</v>
+        <v>22.754860000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>926.016000</v>
+        <v>926.01599999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.608000</v>
+        <v>-166.608</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>81927.918939</v>
+        <v>81927.918938999996</v>
       </c>
       <c r="L12" s="1">
         <v>22.757755</v>
       </c>
       <c r="M12" s="1">
-        <v>949.413000</v>
+        <v>949.41300000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.119000</v>
+        <v>-120.119</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>81938.457932</v>
+        <v>81938.457932000005</v>
       </c>
       <c r="Q12" s="1">
         <v>22.760683</v>
       </c>
       <c r="R12" s="1">
-        <v>956.350000</v>
+        <v>956.35</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.730000</v>
+        <v>-104.73</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>81949.298991</v>
+        <v>81949.298991000003</v>
       </c>
       <c r="V12" s="1">
-        <v>22.763694</v>
+        <v>22.763694000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>963.068000</v>
+        <v>963.06799999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.873400</v>
+        <v>-90.873400000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>81959.488800</v>
+        <v>81959.488800000006</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.766525</v>
+        <v>22.766525000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>970.618000</v>
+        <v>970.61800000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-81.054700</v>
+        <v>-81.054699999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>81970.032755</v>
+        <v>81970.032754999993</v>
       </c>
       <c r="AF12" s="1">
         <v>22.769454</v>
       </c>
       <c r="AG12" s="1">
-        <v>975.715000</v>
+        <v>975.71500000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.431300</v>
+        <v>-80.431299999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>81980.524133</v>
+        <v>81980.524132999999</v>
       </c>
       <c r="AK12" s="1">
         <v>22.772368</v>
       </c>
       <c r="AL12" s="1">
-        <v>983.758000</v>
+        <v>983.75800000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.851500</v>
+        <v>-87.851500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>81991.589702</v>
+        <v>81991.589701999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.775442</v>
+        <v>22.775442000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>992.954000</v>
+        <v>992.95399999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.498000</v>
+        <v>-102.498</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>82002.331239</v>
+        <v>82002.331239000006</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.778425</v>
+        <v>22.778424999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>82012.999193</v>
+        <v>82012.999192999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.781389</v>
+        <v>22.781389000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.378000</v>
+        <v>-142.37799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>82023.701372</v>
+        <v>82023.701371999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.784361</v>
+        <v>22.784361000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.546000</v>
+        <v>-226.54599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>82034.533041</v>
+        <v>82034.533041000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.787370</v>
+        <v>22.787369999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1138.710000</v>
+        <v>1138.71</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.287000</v>
+        <v>-361.28699999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>82045.530304</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.790425</v>
+        <v>22.790424999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-568.733000</v>
+        <v>-568.73299999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>82056.011266</v>
+        <v>82056.011266000001</v>
       </c>
       <c r="BT12" s="1">
         <v>22.793336</v>
       </c>
       <c r="BU12" s="1">
-        <v>1417.000000</v>
+        <v>1417</v>
       </c>
       <c r="BV12" s="1">
-        <v>-789.960000</v>
+        <v>-789.96</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>82067.227298</v>
+        <v>82067.227297999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.796452</v>
+        <v>22.796451999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1577.170000</v>
+        <v>1577.17</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1020.040000</v>
+        <v>-1020.04</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>82079.201714</v>
+        <v>82079.201713999995</v>
       </c>
       <c r="CD12" s="1">
         <v>22.799778</v>
       </c>
       <c r="CE12" s="1">
-        <v>1978.600000</v>
+        <v>1978.6</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1558.040000</v>
+        <v>-1558.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>81907.405894</v>
+        <v>81907.405893999996</v>
       </c>
       <c r="B13" s="1">
-        <v>22.752057</v>
+        <v>22.752057000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>909.186000</v>
+        <v>909.18600000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.796000</v>
+        <v>-195.79599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>81917.844695</v>
+        <v>81917.844695000007</v>
       </c>
       <c r="G13" s="1">
-        <v>22.754957</v>
+        <v>22.754957000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>925.789000</v>
+        <v>925.78899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.793000</v>
+        <v>-166.79300000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>81928.614329</v>
+        <v>81928.614329000004</v>
       </c>
       <c r="L13" s="1">
-        <v>22.757948</v>
+        <v>22.757947999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>949.489000</v>
+        <v>949.48900000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.985000</v>
+        <v>-119.985</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>81939.187052</v>
+        <v>81939.187051999994</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.760885</v>
+        <v>22.760884999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>956.375000</v>
+        <v>956.375</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.728000</v>
+        <v>-104.72799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>81949.645197</v>
+        <v>81949.645197000005</v>
       </c>
       <c r="V13" s="1">
-        <v>22.763790</v>
+        <v>22.76379</v>
       </c>
       <c r="W13" s="1">
-        <v>963.125000</v>
+        <v>963.125</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.923700</v>
+        <v>-90.923699999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>81959.836497</v>
+        <v>81959.836496999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.766621</v>
+        <v>22.766621000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>970.641000</v>
+        <v>970.64099999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-81.072800</v>
+        <v>-81.072800000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>81970.375143</v>
+        <v>81970.375142999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.769549</v>
+        <v>22.769549000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>975.754000</v>
+        <v>975.75400000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.434100</v>
+        <v>-80.434100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>81981.191251</v>
+        <v>81981.191250999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.772553</v>
+        <v>22.772552999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>983.737000</v>
+        <v>983.73699999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.864400</v>
+        <v>-87.864400000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>81991.989158</v>
+        <v>81991.989157999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.775553</v>
+        <v>22.775552999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>992.951000</v>
+        <v>992.95100000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.519000</v>
+        <v>-102.51900000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>82002.757303</v>
+        <v>82002.757303000006</v>
       </c>
       <c r="AU13" s="1">
         <v>22.778544</v>
       </c>
       <c r="AV13" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.812000</v>
+        <v>-123.812</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>82013.388586</v>
+        <v>82013.388586000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.781497</v>
+        <v>22.781497000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1013.960000</v>
+        <v>1013.96</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.369000</v>
+        <v>-142.369</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>82024.087754</v>
+        <v>82024.087753999993</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.784469</v>
+        <v>22.784469000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.540000</v>
+        <v>-226.54</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>82034.906524</v>
+        <v>82034.906524000005</v>
       </c>
       <c r="BJ13" s="1">
         <v>22.787474</v>
       </c>
       <c r="BK13" s="1">
-        <v>1138.730000</v>
+        <v>1138.73</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.205000</v>
+        <v>-361.20499999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>82045.951582</v>
+        <v>82045.951581999994</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.790542</v>
+        <v>22.790541999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-568.758000</v>
+        <v>-568.75800000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>82056.441296</v>
+        <v>82056.441296000005</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.793456</v>
+        <v>22.793455999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1417.080000</v>
+        <v>1417.08</v>
       </c>
       <c r="BV13" s="1">
-        <v>-789.853000</v>
+        <v>-789.85299999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>82067.660801</v>
+        <v>82067.660801000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.796572</v>
+        <v>22.796572000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1577.090000</v>
+        <v>1577.09</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1020.040000</v>
+        <v>-1020.04</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>82079.730449</v>
+        <v>82079.730448999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.799925</v>
+        <v>22.799925000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1979.890000</v>
+        <v>1979.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1559.150000</v>
+        <v>-1559.15</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>81908.086437</v>
+        <v>81908.086437000005</v>
       </c>
       <c r="B14" s="1">
         <v>22.752246</v>
       </c>
       <c r="C14" s="1">
-        <v>909.024000</v>
+        <v>909.024</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.905000</v>
+        <v>-195.905</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>81918.539622</v>
+        <v>81918.539621999997</v>
       </c>
       <c r="G14" s="1">
-        <v>22.755150</v>
+        <v>22.75515</v>
       </c>
       <c r="H14" s="1">
-        <v>926.534000</v>
+        <v>926.53399999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.127000</v>
+        <v>-166.12700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>81928.960536</v>
+        <v>81928.960535999999</v>
       </c>
       <c r="L14" s="1">
-        <v>22.758045</v>
+        <v>22.758044999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>949.332000</v>
+        <v>949.33199999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.172000</v>
+        <v>-120.172</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>81939.501055</v>
+        <v>81939.501055000001</v>
       </c>
       <c r="Q14" s="1">
         <v>22.760973</v>
       </c>
       <c r="R14" s="1">
-        <v>956.322000</v>
+        <v>956.322</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.749000</v>
+        <v>-104.749</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>81949.989420</v>
+        <v>81949.989419999998</v>
       </c>
       <c r="V14" s="1">
-        <v>22.763886</v>
+        <v>22.763885999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>963.125000</v>
+        <v>963.125</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.902800</v>
+        <v>-90.902799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>81960.502159</v>
+        <v>81960.502158999996</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.766806</v>
+        <v>22.766805999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>970.627000</v>
+        <v>970.62699999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-81.043600</v>
+        <v>-81.043599999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>81971.029744</v>
+        <v>81971.029743999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.769730</v>
+        <v>22.769729999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>975.737000</v>
+        <v>975.73699999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.432600</v>
+        <v>-80.432599999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>81981.567220</v>
+        <v>81981.567219999997</v>
       </c>
       <c r="AK14" s="1">
         <v>22.772658</v>
       </c>
       <c r="AL14" s="1">
-        <v>983.773000</v>
+        <v>983.77300000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.847800</v>
+        <v>-87.847800000000007</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>81992.347764</v>
+        <v>81992.347764000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.775652</v>
+        <v>22.775652000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>992.976000</v>
+        <v>992.976</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.501000</v>
+        <v>-102.501</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>82003.123847</v>
+        <v>82003.123846999995</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.778646</v>
+        <v>22.778645999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>82013.746664</v>
+        <v>82013.746664000006</v>
       </c>
       <c r="AZ14" s="1">
         <v>22.781596</v>
       </c>
       <c r="BA14" s="1">
-        <v>1013.960000</v>
+        <v>1013.96</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.381000</v>
+        <v>-142.381</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>82024.452810</v>
+        <v>82024.452810000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.784570</v>
+        <v>22.784569999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.526000</v>
+        <v>-226.52600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>82035.336524</v>
+        <v>82035.336523999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.787593</v>
+        <v>22.787593000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1138.690000</v>
+        <v>1138.69</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.237000</v>
+        <v>-361.23700000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>82046.349696</v>
+        <v>82046.349696000005</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.790653</v>
+        <v>22.790652999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-568.752000</v>
+        <v>-568.75199999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>82056.853504</v>
+        <v>82056.853503999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.793570</v>
+        <v>22.793569999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1417.070000</v>
+        <v>1417.07</v>
       </c>
       <c r="BV14" s="1">
-        <v>-789.691000</v>
+        <v>-789.69100000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>82068.084917</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.796690</v>
+        <v>22.796690000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1577.090000</v>
+        <v>1577.09</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1020.170000</v>
+        <v>-1020.17</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>82080.249264</v>
+        <v>82080.249263999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.800069</v>
+        <v>22.800069000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1980.580000</v>
+        <v>1980.58</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1558.000000</v>
+        <v>-1558</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>81908.434099</v>
+        <v>81908.434099000006</v>
       </c>
       <c r="B15" s="1">
         <v>22.752343</v>
       </c>
       <c r="C15" s="1">
-        <v>909.153000</v>
+        <v>909.15300000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.802000</v>
+        <v>-195.80199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>81918.883814</v>
+        <v>81918.883814000001</v>
       </c>
       <c r="G15" s="1">
         <v>22.755246</v>
       </c>
       <c r="H15" s="1">
-        <v>926.870000</v>
+        <v>926.87</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.747000</v>
+        <v>-166.74700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>81929.308729</v>
+        <v>81929.308728999997</v>
       </c>
       <c r="L15" s="1">
-        <v>22.758141</v>
+        <v>22.758140999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>949.406000</v>
+        <v>949.40599999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.053000</v>
+        <v>-120.053</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>81940.164665</v>
+        <v>81940.164665000004</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.761157</v>
+        <v>22.761157000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>956.291000</v>
+        <v>956.29100000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.752000</v>
+        <v>-104.752</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>81950.660033</v>
+        <v>81950.660032999993</v>
       </c>
       <c r="V15" s="1">
-        <v>22.764072</v>
+        <v>22.764071999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>963.176000</v>
+        <v>963.17600000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.821600</v>
+        <v>-90.821600000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>81960.882558</v>
+        <v>81960.882557999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.766912</v>
+        <v>22.766912000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>970.572000</v>
+        <v>970.572</v>
       </c>
       <c r="AC15" s="1">
-        <v>-81.036300</v>
+        <v>-81.036299999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>81971.405184</v>
+        <v>81971.405184000003</v>
       </c>
       <c r="AF15" s="1">
         <v>22.769835</v>
       </c>
       <c r="AG15" s="1">
-        <v>975.715000</v>
+        <v>975.71500000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.389300</v>
+        <v>-80.389300000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>81981.918386</v>
+        <v>81981.918386000005</v>
       </c>
       <c r="AK15" s="1">
         <v>22.772755</v>
       </c>
       <c r="AL15" s="1">
-        <v>983.750000</v>
+        <v>983.75</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.853100</v>
+        <v>-87.853099999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>81992.709876</v>
+        <v>81992.709875999994</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.775753</v>
+        <v>22.775753000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>992.960000</v>
+        <v>992.96</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.495000</v>
+        <v>-102.495</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>82003.486950</v>
+        <v>82003.486950000006</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.778746</v>
+        <v>22.778746000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.804000</v>
+        <v>-123.804</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>82014.171240</v>
+        <v>82014.171239999996</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.781714</v>
+        <v>22.781714000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.383000</v>
+        <v>-142.38300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>82025.173001</v>
+        <v>82025.173001000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.784770</v>
+        <v>22.784770000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.548000</v>
+        <v>-226.548</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>82035.676316</v>
+        <v>82035.676315999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.787688</v>
+        <v>22.787687999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1138.730000</v>
+        <v>1138.73</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.202000</v>
+        <v>-361.202</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>82046.771292</v>
+        <v>82046.771292000005</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.790770</v>
+        <v>22.790769999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-568.725000</v>
+        <v>-568.72500000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>82057.285023</v>
+        <v>82057.285023000004</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.793690</v>
+        <v>22.793690000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1417.050000</v>
+        <v>1417.05</v>
       </c>
       <c r="BV15" s="1">
-        <v>-789.643000</v>
+        <v>-789.64300000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>82068.505984</v>
+        <v>82068.505984000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.796807</v>
+        <v>22.796807000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1577.210000</v>
+        <v>1577.21</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1020.090000</v>
+        <v>-1020.09</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>82080.757664</v>
+        <v>82080.757664000004</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.800210</v>
+        <v>22.80021</v>
       </c>
       <c r="CE15" s="1">
-        <v>1979.670000</v>
+        <v>1979.67</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1557.390000</v>
+        <v>-1557.39</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>81908.772899</v>
+        <v>81908.772899000003</v>
       </c>
       <c r="B16" s="1">
         <v>22.752437</v>
       </c>
       <c r="C16" s="1">
-        <v>909.243000</v>
+        <v>909.24300000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.790000</v>
+        <v>-195.79</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>81919.227045</v>
+        <v>81919.227045000007</v>
       </c>
       <c r="G16" s="1">
-        <v>22.755341</v>
+        <v>22.755341000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>926.298000</v>
+        <v>926.298</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.111000</v>
+        <v>-167.11099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>81929.967911</v>
       </c>
       <c r="L16" s="1">
-        <v>22.758324</v>
+        <v>22.758324000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>949.475000</v>
+        <v>949.47500000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.100000</v>
+        <v>-120.1</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>81940.547578</v>
+        <v>81940.547577999998</v>
       </c>
       <c r="Q16" s="1">
         <v>22.761263</v>
       </c>
       <c r="R16" s="1">
-        <v>956.352000</v>
+        <v>956.35199999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.682000</v>
+        <v>-104.682</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>81951.024603</v>
+        <v>81951.024602999998</v>
       </c>
       <c r="V16" s="1">
-        <v>22.764174</v>
+        <v>22.764174000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>962.990000</v>
+        <v>962.99</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.840400</v>
+        <v>-90.840400000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>81961.232765</v>
+        <v>81961.232764999993</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.767009</v>
+        <v>22.767009000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>970.666000</v>
+        <v>970.66600000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-81.065500</v>
+        <v>-81.0655</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>81971.751391</v>
+        <v>81971.751390999998</v>
       </c>
       <c r="AF16" s="1">
         <v>22.769931</v>
       </c>
       <c r="AG16" s="1">
-        <v>975.709000</v>
+        <v>975.70899999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.372300</v>
+        <v>-80.372299999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>81982.265090</v>
+        <v>81982.265090000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.772851</v>
+        <v>22.772850999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>983.752000</v>
+        <v>983.75199999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.823900</v>
+        <v>-87.823899999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>81993.132467</v>
+        <v>81993.132467000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.775870</v>
+        <v>22.775870000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>992.946000</v>
+        <v>992.94600000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.539000</v>
+        <v>-102.539</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>82003.903061</v>
+        <v>82003.903061000005</v>
       </c>
       <c r="AU16" s="1">
         <v>22.778862</v>
       </c>
       <c r="AV16" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.798000</v>
+        <v>-123.798</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>82014.460903</v>
+        <v>82014.460902999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.781795</v>
+        <v>22.781794999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1013.960000</v>
+        <v>1013.96</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.395000</v>
+        <v>-142.39500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>82025.534090</v>
+        <v>82025.534090000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.784871</v>
+        <v>22.784870999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.539000</v>
+        <v>-226.53899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>82036.053243</v>
+        <v>82036.053243000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.787793</v>
+        <v>22.787793000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1138.770000</v>
+        <v>1138.77</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.245000</v>
+        <v>-361.245</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>82047.169084</v>
+        <v>82047.169083999994</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.790880</v>
+        <v>22.790880000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1269.910000</v>
+        <v>1269.9100000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-568.739000</v>
+        <v>-568.73900000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>82057.693694</v>
+        <v>82057.693694000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.793804</v>
+        <v>22.793804000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1416.930000</v>
+        <v>1416.93</v>
       </c>
       <c r="BV16" s="1">
-        <v>-789.564000</v>
+        <v>-789.56399999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>82068.953407</v>
+        <v>82068.953406999994</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.796932</v>
+        <v>22.796932000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1577.050000</v>
+        <v>1577.05</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1019.980000</v>
+        <v>-1019.98</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>82081.285936</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.800357</v>
+        <v>22.800357000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1980.690000</v>
+        <v>1980.69</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1559.060000</v>
+        <v>-1559.06</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>81909.429570</v>
+        <v>81909.429569999993</v>
       </c>
       <c r="B17" s="1">
-        <v>22.752619</v>
+        <v>22.752618999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>909.062000</v>
+        <v>909.06200000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.941000</v>
+        <v>-195.941</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>81919.892183</v>
+        <v>81919.892183000004</v>
       </c>
       <c r="G17" s="1">
         <v>22.755526</v>
       </c>
       <c r="H17" s="1">
-        <v>926.589000</v>
+        <v>926.58900000000006</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.492000</v>
+        <v>-166.49199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>81930.347846</v>
+        <v>81930.347846000004</v>
       </c>
       <c r="L17" s="1">
-        <v>22.758430</v>
+        <v>22.758430000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>949.484000</v>
+        <v>949.48400000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.097000</v>
+        <v>-120.09699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>81940.895309</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.761360</v>
+        <v>22.76136</v>
       </c>
       <c r="R17" s="1">
-        <v>956.355000</v>
+        <v>956.35500000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.706000</v>
+        <v>-104.706</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>81951.372267</v>
+        <v>81951.372266999999</v>
       </c>
       <c r="V17" s="1">
-        <v>22.764270</v>
+        <v>22.76427</v>
       </c>
       <c r="W17" s="1">
-        <v>963.064000</v>
+        <v>963.06399999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.806900</v>
+        <v>-90.806899999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>81961.580429</v>
+        <v>81961.580428999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.767106</v>
+        <v>22.767105999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>970.619000</v>
+        <v>970.61900000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.996600</v>
+        <v>-80.996600000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>81972.098097</v>
+        <v>81972.098096999995</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.770027</v>
+        <v>22.770026999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>975.716000</v>
+        <v>975.71600000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.397800</v>
+        <v>-80.397800000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>81982.695653</v>
+        <v>81982.695653000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.772971</v>
+        <v>22.772970999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>983.760000</v>
+        <v>983.76</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.851000</v>
+        <v>-87.850999999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>81993.429540</v>
+        <v>81993.429539999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.775953</v>
+        <v>22.775953000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>992.963000</v>
+        <v>992.96299999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.523000</v>
+        <v>-102.523</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>82004.217525</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.778949</v>
+        <v>22.778949000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.829000</v>
+        <v>-123.82899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>82014.821991</v>
+        <v>82014.821991000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.781895</v>
+        <v>22.781894999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.373000</v>
+        <v>-142.37299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>82025.895177</v>
+        <v>82025.895176999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.784971</v>
+        <v>22.784970999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1059.230000</v>
+        <v>1059.23</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.543000</v>
+        <v>-226.54300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>82036.428256</v>
+        <v>82036.428255999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.787897</v>
+        <v>22.787897000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1138.710000</v>
+        <v>1138.71</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.282000</v>
+        <v>-361.28199999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>82047.601429</v>
+        <v>82047.601429000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.791000</v>
+        <v>22.791</v>
       </c>
       <c r="BP17" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-568.756000</v>
+        <v>-568.75599999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>82058.126702</v>
+        <v>82058.126701999994</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.793924</v>
+        <v>22.793924000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1416.900000</v>
+        <v>1416.9</v>
       </c>
       <c r="BV17" s="1">
-        <v>-789.438000</v>
+        <v>-789.43799999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>82069.386879</v>
+        <v>82069.386878999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.797052</v>
+        <v>22.797052000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1577.000000</v>
+        <v>1577</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1020.040000</v>
+        <v>-1020.04</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>82081.819136</v>
+        <v>82081.819136000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.800505</v>
+        <v>22.800505000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1979.530000</v>
+        <v>1979.53</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1557.170000</v>
+        <v>-1557.17</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>81909.798594</v>
+        <v>81909.798594000007</v>
       </c>
       <c r="B18" s="1">
-        <v>22.752722</v>
+        <v>22.752721999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>909.092000</v>
+        <v>909.09199999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.923000</v>
+        <v>-195.923</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>81920.259220</v>
+        <v>81920.259220000007</v>
       </c>
       <c r="G18" s="1">
-        <v>22.755628</v>
+        <v>22.755628000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>926.455000</v>
+        <v>926.45500000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.654000</v>
+        <v>-166.654</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>81930.691610</v>
+        <v>81930.691609999994</v>
       </c>
       <c r="L18" s="1">
-        <v>22.758525</v>
+        <v>22.758524999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>949.394000</v>
+        <v>949.39400000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.935000</v>
+        <v>-119.935</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>81941.244283</v>
+        <v>81941.244283000007</v>
       </c>
       <c r="Q18" s="1">
         <v>22.761457</v>
       </c>
       <c r="R18" s="1">
-        <v>956.345000</v>
+        <v>956.34500000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.739000</v>
+        <v>-104.739</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>81951.716523</v>
+        <v>81951.716522999996</v>
       </c>
       <c r="V18" s="1">
-        <v>22.764366</v>
+        <v>22.764365999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>963.001000</v>
+        <v>963.00099999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.777400</v>
+        <v>-90.7774</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>81962.007484</v>
+        <v>81962.007484000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.767224</v>
+        <v>22.767223999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>970.675000</v>
+        <v>970.67499999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-81.146900</v>
+        <v>-81.146900000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>81972.524911</v>
@@ -4683,497 +5099,497 @@
         <v>22.770146</v>
       </c>
       <c r="AG18" s="1">
-        <v>975.681000</v>
+        <v>975.68100000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.380100</v>
+        <v>-80.380099999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>81982.974902</v>
+        <v>81982.974902000002</v>
       </c>
       <c r="AK18" s="1">
         <v>22.773049</v>
       </c>
       <c r="AL18" s="1">
-        <v>983.767000</v>
+        <v>983.76700000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.835100</v>
+        <v>-87.835099999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>81993.788653</v>
+        <v>81993.788652999996</v>
       </c>
       <c r="AP18" s="1">
         <v>22.776052</v>
       </c>
       <c r="AQ18" s="1">
-        <v>992.957000</v>
+        <v>992.95699999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.503000</v>
+        <v>-102.503</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>82004.580101</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.779050</v>
+        <v>22.779050000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.826000</v>
+        <v>-123.82599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>82015.179111</v>
+        <v>82015.179111000005</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.781994</v>
+        <v>22.781994000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1013.960000</v>
+        <v>1013.96</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.383000</v>
+        <v>-142.38300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>82026.617847</v>
+        <v>82026.617847000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.785172</v>
+        <v>22.785171999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1059.260000</v>
+        <v>1059.26</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.534000</v>
+        <v>-226.53399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>82037.176696</v>
+        <v>82037.176695999995</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.788105</v>
+        <v>22.788105000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1138.690000</v>
+        <v>1138.69</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.239000</v>
+        <v>-361.23899999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>82047.985004</v>
+        <v>82047.985004000002</v>
       </c>
       <c r="BO18" s="1">
         <v>22.791107</v>
       </c>
       <c r="BP18" s="1">
-        <v>1269.930000</v>
+        <v>1269.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-568.728000</v>
+        <v>-568.72799999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>82058.556733</v>
+        <v>82058.556733000005</v>
       </c>
       <c r="BT18" s="1">
         <v>22.794044</v>
       </c>
       <c r="BU18" s="1">
-        <v>1416.760000</v>
+        <v>1416.76</v>
       </c>
       <c r="BV18" s="1">
-        <v>-789.427000</v>
+        <v>-789.42700000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>82069.805006</v>
+        <v>82069.805005999995</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.797168</v>
+        <v>22.797167999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1577.090000</v>
+        <v>1577.09</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1020.040000</v>
+        <v>-1020.04</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>82082.680189</v>
+        <v>82082.680189000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.800744</v>
+        <v>22.800744000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1980.790000</v>
+        <v>1980.79</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1558.250000</v>
+        <v>-1558.25</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>81910.141329</v>
+        <v>81910.141329000005</v>
       </c>
       <c r="B19" s="1">
         <v>22.752817</v>
       </c>
       <c r="C19" s="1">
-        <v>909.108000</v>
+        <v>909.10799999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.928000</v>
+        <v>-195.928</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>81920.602451</v>
+        <v>81920.602450999999</v>
       </c>
       <c r="G19" s="1">
         <v>22.755723</v>
       </c>
       <c r="H19" s="1">
-        <v>926.662000</v>
+        <v>926.66200000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.501000</v>
+        <v>-166.501</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>81931.039269</v>
+        <v>81931.039269000001</v>
       </c>
       <c r="L19" s="1">
-        <v>22.758622</v>
+        <v>22.758621999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>949.485000</v>
+        <v>949.48500000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.991000</v>
+        <v>-119.991</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>81941.670024</v>
+        <v>81941.670024000006</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.761575</v>
+        <v>22.761575000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>956.319000</v>
+        <v>956.31899999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.732000</v>
+        <v>-104.732</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>81952.148010</v>
+        <v>81952.148010000004</v>
       </c>
       <c r="V19" s="1">
-        <v>22.764486</v>
+        <v>22.764486000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>963.086000</v>
+        <v>963.08600000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.832400</v>
+        <v>-90.832400000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>81962.288220</v>
+        <v>81962.288220000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.767302</v>
+        <v>22.767302000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>970.538000</v>
+        <v>970.53800000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.950400</v>
+        <v>-80.950400000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>81972.809854</v>
+        <v>81972.809854000006</v>
       </c>
       <c r="AF19" s="1">
         <v>22.770225</v>
       </c>
       <c r="AG19" s="1">
-        <v>975.723000</v>
+        <v>975.72299999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.437500</v>
+        <v>-80.4375</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>81983.320081</v>
+        <v>81983.320080999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.773144</v>
+        <v>22.773143999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>983.769000</v>
+        <v>983.76900000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.845500</v>
+        <v>-87.845500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>81994.148738</v>
+        <v>81994.148738000004</v>
       </c>
       <c r="AP19" s="1">
         <v>22.776152</v>
       </c>
       <c r="AQ19" s="1">
-        <v>992.953000</v>
+        <v>992.95299999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.513000</v>
+        <v>-102.51300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>82004.946156</v>
+        <v>82004.946156000005</v>
       </c>
       <c r="AU19" s="1">
         <v>22.779152</v>
       </c>
       <c r="AV19" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.811000</v>
+        <v>-123.81100000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>82015.903765</v>
+        <v>82015.903764999995</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.782195</v>
+        <v>22.782195000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.370000</v>
+        <v>-142.37</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>82027.007207</v>
+        <v>82027.007207000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.785280</v>
+        <v>22.78528</v>
       </c>
       <c r="BF19" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.536000</v>
+        <v>-226.536</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>82037.555161</v>
+        <v>82037.555160999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.788210</v>
+        <v>22.788209999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1138.750000</v>
+        <v>1138.75</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.234000</v>
+        <v>-361.23399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>82048.405611</v>
+        <v>82048.405610999995</v>
       </c>
       <c r="BO19" s="1">
         <v>22.791224</v>
       </c>
       <c r="BP19" s="1">
-        <v>1269.900000</v>
+        <v>1269.9000000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-568.759000</v>
+        <v>-568.75900000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>82058.968412</v>
+        <v>82058.968412000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.794158</v>
+        <v>22.794157999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1416.580000</v>
+        <v>1416.58</v>
       </c>
       <c r="BV19" s="1">
-        <v>-789.358000</v>
+        <v>-789.35799999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>82070.539117</v>
+        <v>82070.539116999993</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.797372</v>
+        <v>22.797371999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1577.120000</v>
+        <v>1577.12</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1020.060000</v>
+        <v>-1020.06</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>82082.898406</v>
+        <v>82082.898405999993</v>
       </c>
       <c r="CD19" s="1">
         <v>22.800805</v>
       </c>
       <c r="CE19" s="1">
-        <v>1981.100000</v>
+        <v>1981.1</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1558.350000</v>
+        <v>-1558.35</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>81910.484561</v>
+        <v>81910.484561000005</v>
       </c>
       <c r="B20" s="1">
-        <v>22.752912</v>
+        <v>22.752911999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>909.122000</v>
+        <v>909.12199999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.946000</v>
+        <v>-195.946</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>81920.981395</v>
+        <v>81920.981394999995</v>
       </c>
       <c r="G20" s="1">
-        <v>22.755828</v>
+        <v>22.755828000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>926.585000</v>
+        <v>926.58500000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.456000</v>
+        <v>-166.45599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>81931.464868</v>
+        <v>81931.464867999995</v>
       </c>
       <c r="L20" s="1">
-        <v>22.758740</v>
+        <v>22.75874</v>
       </c>
       <c r="M20" s="1">
-        <v>949.381000</v>
+        <v>949.38099999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.974000</v>
+        <v>-119.974</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>81941.941335</v>
+        <v>81941.941334999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.761650</v>
+        <v>22.761649999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>956.348000</v>
+        <v>956.34799999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.740000</v>
+        <v>-104.74</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>81952.412874</v>
+        <v>81952.412874000001</v>
       </c>
       <c r="V20" s="1">
-        <v>22.764559</v>
+        <v>22.764558999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>963.094000</v>
+        <v>963.09400000000005</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.858000</v>
+        <v>-90.858000000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>81962.633468</v>
@@ -5182,1722 +5598,1723 @@
         <v>22.767398</v>
       </c>
       <c r="AB20" s="1">
-        <v>970.649000</v>
+        <v>970.649</v>
       </c>
       <c r="AC20" s="1">
-        <v>-81.046300</v>
+        <v>-81.046300000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>81973.147134</v>
+        <v>81973.147133999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.770319</v>
+        <v>22.770319000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>975.691000</v>
+        <v>975.69100000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.331900</v>
+        <v>-80.331900000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>81983.670256</v>
+        <v>81983.670255999998</v>
       </c>
       <c r="AK20" s="1">
         <v>22.773242</v>
       </c>
       <c r="AL20" s="1">
-        <v>983.765000</v>
+        <v>983.76499999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.854000</v>
+        <v>-87.853999999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>81994.874881</v>
+        <v>81994.874880999996</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.776354</v>
+        <v>22.776354000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>992.942000</v>
+        <v>992.94200000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.499000</v>
+        <v>-102.499</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>82005.676266</v>
+        <v>82005.676265999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.779355</v>
+        <v>22.779354999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.800000</v>
+        <v>-123.8</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>82016.279766</v>
+        <v>82016.279766000007</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.782300</v>
+        <v>22.782299999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.398000</v>
+        <v>-142.398</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>82027.367334</v>
+        <v>82027.367333999995</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.785380</v>
+        <v>22.78538</v>
       </c>
       <c r="BF20" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.538000</v>
+        <v>-226.53800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>82037.928616</v>
+        <v>82037.928616000005</v>
       </c>
       <c r="BJ20" s="1">
         <v>22.788314</v>
       </c>
       <c r="BK20" s="1">
-        <v>1138.780000</v>
+        <v>1138.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.257000</v>
+        <v>-361.25700000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>82049.109434</v>
+        <v>82049.109433999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.791419</v>
+        <v>22.791419000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-568.741000</v>
+        <v>-568.74099999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>82059.710427</v>
+        <v>82059.710426999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.794364</v>
+        <v>22.794364000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1416.400000</v>
+        <v>1416.4</v>
       </c>
       <c r="BV20" s="1">
-        <v>-789.545000</v>
+        <v>-789.54499999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>82070.655149</v>
+        <v>82070.655148999998</v>
       </c>
       <c r="BY20" s="1">
         <v>22.797404</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1577.200000</v>
+        <v>1577.2</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1020.000000</v>
+        <v>-1020</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>82083.419692</v>
+        <v>82083.419691999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.800950</v>
+        <v>22.80095</v>
       </c>
       <c r="CE20" s="1">
-        <v>1980.010000</v>
+        <v>1980.01</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1556.890000</v>
+        <v>-1556.89</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>81910.920575</v>
+        <v>81910.920574999996</v>
       </c>
       <c r="B21" s="1">
-        <v>22.753033</v>
+        <v>22.753032999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>908.988000</v>
+        <v>908.98800000000006</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.862000</v>
+        <v>-195.86199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>81921.554771</v>
+        <v>81921.554770999996</v>
       </c>
       <c r="G21" s="1">
-        <v>22.755987</v>
+        <v>22.755987000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>926.297000</v>
+        <v>926.29700000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.626000</v>
+        <v>-166.626</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>81931.742100</v>
+        <v>81931.742100000003</v>
       </c>
       <c r="L21" s="1">
-        <v>22.758817</v>
+        <v>22.758817000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>949.586000</v>
+        <v>949.58600000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.960000</v>
+        <v>-119.96</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>81942.289526</v>
+        <v>81942.289525999993</v>
       </c>
       <c r="Q21" s="1">
         <v>22.761747</v>
       </c>
       <c r="R21" s="1">
-        <v>956.316000</v>
+        <v>956.31600000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.788000</v>
+        <v>-104.788</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>81952.758089</v>
+        <v>81952.758088999995</v>
       </c>
       <c r="V21" s="1">
-        <v>22.764655</v>
+        <v>22.764655000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>963.057000</v>
+        <v>963.05700000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.906100</v>
+        <v>-90.906099999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>81962.984126</v>
+        <v>81962.984125999996</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.767496</v>
+        <v>22.767496000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>970.603000</v>
+        <v>970.60299999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-81.072400</v>
+        <v>-81.072400000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>81973.828674</v>
+        <v>81973.828674000004</v>
       </c>
       <c r="AF21" s="1">
         <v>22.770508</v>
       </c>
       <c r="AG21" s="1">
-        <v>975.680000</v>
+        <v>975.68</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.374000</v>
+        <v>-80.373999999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>81984.365647</v>
+        <v>81984.365646999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.773435</v>
+        <v>22.773434999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>983.738000</v>
+        <v>983.73800000000006</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.878600</v>
+        <v>-87.878600000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>81995.252337</v>
+        <v>81995.252336999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.776459</v>
+        <v>22.776458999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>992.954000</v>
+        <v>992.95399999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.518000</v>
+        <v>-102.518</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>82006.067603</v>
+        <v>82006.067603000003</v>
       </c>
       <c r="AU21" s="1">
         <v>22.779463</v>
       </c>
       <c r="AV21" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>82016.658180</v>
+        <v>82016.658179999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.782405</v>
+        <v>22.782405000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1013.960000</v>
+        <v>1013.96</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.389000</v>
+        <v>-142.38900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>82028.044837</v>
+        <v>82028.044836999994</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.785568</v>
+        <v>22.785568000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1059.260000</v>
+        <v>1059.26</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.521000</v>
+        <v>-226.52099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>82038.614120</v>
+        <v>82038.614119999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>22.788504</v>
       </c>
       <c r="BK21" s="1">
-        <v>1138.690000</v>
+        <v>1138.69</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.242000</v>
+        <v>-361.24200000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>82049.224043</v>
+        <v>82049.224042999995</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.791451</v>
+        <v>22.791450999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1269.910000</v>
+        <v>1269.9100000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-568.757000</v>
+        <v>-568.75699999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>82060.261979</v>
+        <v>82060.261979000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.794517</v>
+        <v>22.794516999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1416.300000</v>
+        <v>1416.3</v>
       </c>
       <c r="BV21" s="1">
-        <v>-789.617000</v>
+        <v>-789.61699999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>82071.101052</v>
+        <v>82071.101051999998</v>
       </c>
       <c r="BY21" s="1">
         <v>22.797528</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1577.070000</v>
+        <v>1577.07</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1020.170000</v>
+        <v>-1020.17</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>82083.937548</v>
+        <v>82083.937548000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.801094</v>
+        <v>22.801093999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1980.410000</v>
+        <v>1980.41</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1557.240000</v>
+        <v>-1557.24</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>81911.183919</v>
+        <v>81911.183919000003</v>
       </c>
       <c r="B22" s="1">
         <v>22.753107</v>
       </c>
       <c r="C22" s="1">
-        <v>908.948000</v>
+        <v>908.94799999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.887000</v>
+        <v>-195.887</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>81921.664387</v>
+        <v>81921.664386999997</v>
       </c>
       <c r="G22" s="1">
-        <v>22.756018</v>
+        <v>22.756018000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>926.390000</v>
+        <v>926.39</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.776000</v>
+        <v>-166.77600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>81932.086324</v>
+        <v>81932.086324000004</v>
       </c>
       <c r="L22" s="1">
         <v>22.758913</v>
       </c>
       <c r="M22" s="1">
-        <v>949.450000</v>
+        <v>949.45</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.009000</v>
+        <v>-120.009</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>81942.641686</v>
+        <v>81942.641686000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.761845</v>
+        <v>22.761845000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>956.367000</v>
+        <v>956.36699999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.681000</v>
+        <v>-104.681</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>81953.099832</v>
+        <v>81953.099832000007</v>
       </c>
       <c r="V22" s="1">
-        <v>22.764750</v>
+        <v>22.764749999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>963.200000</v>
+        <v>963.2</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.966500</v>
+        <v>-90.966499999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>81963.681018</v>
+        <v>81963.681018000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.767689</v>
+        <v>22.767689000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>970.639000</v>
+        <v>970.63900000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-81.004200</v>
+        <v>-81.004199999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>81974.177821</v>
+        <v>81974.177821000005</v>
       </c>
       <c r="AF22" s="1">
         <v>22.770605</v>
       </c>
       <c r="AG22" s="1">
-        <v>975.740000</v>
+        <v>975.74</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.409200</v>
+        <v>-80.409199999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>81984.715823</v>
+        <v>81984.715823000006</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.773532</v>
+        <v>22.773531999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>983.746000</v>
+        <v>983.74599999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.841400</v>
+        <v>-87.841399999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>81995.632272</v>
+        <v>81995.632272000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.776565</v>
+        <v>22.776565000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>992.984000</v>
+        <v>992.98400000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.522000</v>
+        <v>-102.52200000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>82006.429682</v>
+        <v>82006.429682000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.779564</v>
+        <v>22.779564000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.802000</v>
+        <v>-123.80200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>82017.334760</v>
+        <v>82017.334759999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.782593</v>
+        <v>22.782592999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1013.940000</v>
+        <v>1013.94</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.390000</v>
+        <v>-142.38999999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>82028.477845</v>
+        <v>82028.477845000001</v>
       </c>
       <c r="BE22" s="1">
         <v>22.785688</v>
       </c>
       <c r="BF22" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.543000</v>
+        <v>-226.54300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>82039.054039</v>
+        <v>82039.054038999995</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.788626</v>
+        <v>22.788626000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1138.740000</v>
+        <v>1138.74</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.207000</v>
+        <v>-361.20699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>82049.646105</v>
+        <v>82049.646105000007</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.791568</v>
+        <v>22.791568000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1269.910000</v>
+        <v>1269.9100000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-568.729000</v>
+        <v>-568.72900000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>82060.694499</v>
+        <v>82060.694499000005</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.794637</v>
+        <v>22.794637000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1416.370000</v>
+        <v>1416.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-789.882000</v>
+        <v>-789.88199999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>82071.533564</v>
+        <v>82071.533563999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.797648</v>
+        <v>22.797647999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1577.100000</v>
+        <v>1577.1</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1020.080000</v>
+        <v>-1020.08</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>82084.487579</v>
+        <v>82084.487578999993</v>
       </c>
       <c r="CD22" s="1">
         <v>22.801247</v>
       </c>
       <c r="CE22" s="1">
-        <v>1980.730000</v>
+        <v>1980.73</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1557.670000</v>
+        <v>-1557.67</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>81911.524673</v>
+        <v>81911.524673000007</v>
       </c>
       <c r="B23" s="1">
-        <v>22.753201</v>
+        <v>22.753201000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>908.987000</v>
+        <v>908.98699999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.998000</v>
+        <v>-195.99799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>81922.005138</v>
+        <v>81922.005137999993</v>
       </c>
       <c r="G23" s="1">
-        <v>22.756113</v>
+        <v>22.756112999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>926.570000</v>
+        <v>926.57</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.506000</v>
+        <v>-166.506</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>81932.434543</v>
+        <v>81932.434542999996</v>
       </c>
       <c r="L23" s="1">
-        <v>22.759010</v>
+        <v>22.75901</v>
       </c>
       <c r="M23" s="1">
-        <v>949.467000</v>
+        <v>949.46699999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.140000</v>
+        <v>-120.14</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>81943.336117</v>
+        <v>81943.336116999999</v>
       </c>
       <c r="Q23" s="1">
         <v>22.762038</v>
       </c>
       <c r="R23" s="1">
-        <v>956.386000</v>
+        <v>956.38599999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.702000</v>
+        <v>-104.702</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>81953.789271</v>
+        <v>81953.789271000001</v>
       </c>
       <c r="V23" s="1">
         <v>22.764941</v>
       </c>
       <c r="W23" s="1">
-        <v>963.038000</v>
+        <v>963.03800000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.865000</v>
+        <v>-90.864999999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>81964.031162</v>
+        <v>81964.031161999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.767786</v>
+        <v>22.767786000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>970.588000</v>
+        <v>970.58799999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-81.029000</v>
+        <v>-81.028999999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>81974.519102</v>
+        <v>81974.519102000006</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.770700</v>
+        <v>22.770700000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>975.735000</v>
+        <v>975.73500000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.405200</v>
+        <v>-80.405199999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>81985.065502</v>
+        <v>81985.065501999998</v>
       </c>
       <c r="AK23" s="1">
         <v>22.773629</v>
       </c>
       <c r="AL23" s="1">
-        <v>983.741000</v>
+        <v>983.74099999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.832000</v>
+        <v>-87.831999999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>81996.304847</v>
+        <v>81996.304847000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.776751</v>
+        <v>22.776751000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>992.990000</v>
+        <v>992.99</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.493000</v>
+        <v>-102.49299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>82007.115153</v>
+        <v>82007.115153000006</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.779754</v>
+        <v>22.779754000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.812000</v>
+        <v>-123.812</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>82017.740451</v>
+        <v>82017.740451000005</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.782706</v>
+        <v>22.782706000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1013.940000</v>
+        <v>1013.94</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.386000</v>
+        <v>-142.386</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>82028.840925</v>
+        <v>82028.840924999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.785789</v>
+        <v>22.785789000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.536000</v>
+        <v>-226.536</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>82039.428055</v>
+        <v>82039.428054999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.788730</v>
+        <v>22.788730000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1138.770000</v>
+        <v>1138.77</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.300000</v>
+        <v>-361.3</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>82050.047369</v>
+        <v>82050.047369000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.791680</v>
+        <v>22.791679999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1269.910000</v>
+        <v>1269.9100000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-568.737000</v>
+        <v>-568.73699999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>82061.117579</v>
+        <v>82061.117578999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.794755</v>
+        <v>22.794754999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1416.330000</v>
+        <v>1416.33</v>
       </c>
       <c r="BV23" s="1">
-        <v>-789.974000</v>
+        <v>-789.97400000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>82071.969051</v>
+        <v>82071.969050999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.797769</v>
+        <v>22.797768999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1577.210000</v>
+        <v>1577.21</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1020.050000</v>
+        <v>-1020.05</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>82085.019786</v>
+        <v>82085.019786000004</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.801394</v>
+        <v>22.801393999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1979.290000</v>
+        <v>1979.29</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1557.280000</v>
+        <v>-1557.28</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>81911.867407</v>
+        <v>81911.867406999998</v>
       </c>
       <c r="B24" s="1">
         <v>22.753297</v>
       </c>
       <c r="C24" s="1">
-        <v>909.088000</v>
+        <v>909.08799999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.831000</v>
+        <v>-195.83099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>81922.695857</v>
+        <v>81922.695856999999</v>
       </c>
       <c r="G24" s="1">
         <v>22.756304</v>
       </c>
       <c r="H24" s="1">
-        <v>926.408000</v>
+        <v>926.40800000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.549000</v>
+        <v>-166.54900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>81933.129923</v>
       </c>
       <c r="L24" s="1">
-        <v>22.759203</v>
+        <v>22.759202999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>949.463000</v>
+        <v>949.46299999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.085000</v>
+        <v>-120.08499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>81943.684805</v>
+        <v>81943.684804999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.762135</v>
+        <v>22.762135000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>956.363000</v>
+        <v>956.36300000000006</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.710000</v>
+        <v>-104.71</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>81954.132007</v>
+        <v>81954.132006999993</v>
       </c>
       <c r="V24" s="1">
         <v>22.765037</v>
       </c>
       <c r="W24" s="1">
-        <v>963.087000</v>
+        <v>963.08699999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.865900</v>
+        <v>-90.865899999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>81964.377402</v>
+        <v>81964.377401999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.767883</v>
+        <v>22.767883000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>970.576000</v>
+        <v>970.57600000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-81.020500</v>
+        <v>-81.020499999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>81975.174779</v>
+        <v>81975.174778999994</v>
       </c>
       <c r="AF24" s="1">
         <v>22.770882</v>
       </c>
       <c r="AG24" s="1">
-        <v>975.692000</v>
+        <v>975.69200000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.390500</v>
+        <v>-80.390500000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>81985.722237</v>
+        <v>81985.722236999994</v>
       </c>
       <c r="AK24" s="1">
         <v>22.773812</v>
       </c>
       <c r="AL24" s="1">
-        <v>983.764000</v>
+        <v>983.76400000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.844600</v>
+        <v>-87.8446</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>81996.713552</v>
+        <v>81996.713552000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.776865</v>
+        <v>22.776865000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>992.970000</v>
+        <v>992.97</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.499000</v>
+        <v>-102.499</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>82007.523360</v>
+        <v>82007.523360000007</v>
       </c>
       <c r="AU24" s="1">
         <v>22.779868</v>
       </c>
       <c r="AV24" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.799000</v>
+        <v>-123.79900000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>82018.116914</v>
+        <v>82018.116913999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.782810</v>
+        <v>22.782810000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.372000</v>
+        <v>-142.37200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>82029.202005</v>
+        <v>82029.202004999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.785889</v>
+        <v>22.785889000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.550000</v>
+        <v>-226.55</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>82039.803526</v>
+        <v>82039.803526000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.788834</v>
+        <v>22.788834000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1138.800000</v>
+        <v>1138.8</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.266000</v>
+        <v>-361.26600000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>82050.471944</v>
+        <v>82050.471944000004</v>
       </c>
       <c r="BO24" s="1">
         <v>22.791798</v>
       </c>
       <c r="BP24" s="1">
-        <v>1269.870000</v>
+        <v>1269.8699999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-568.731000</v>
+        <v>-568.73099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>82061.540169</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.794872</v>
+        <v>22.794872000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1416.400000</v>
+        <v>1416.4</v>
       </c>
       <c r="BV24" s="1">
-        <v>-790.027000</v>
+        <v>-790.02700000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>82072.375771</v>
+        <v>82072.375771000006</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.797882</v>
+        <v>22.797882000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1577.080000</v>
+        <v>1577.08</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1020.100000</v>
+        <v>-1020.1</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>82085.537609</v>
+        <v>82085.537609000006</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.801538</v>
+        <v>22.801538000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1979.080000</v>
+        <v>1979.08</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1558.760000</v>
+        <v>-1558.76</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>81912.548424</v>
+        <v>81912.548423999993</v>
       </c>
       <c r="B25" s="1">
-        <v>22.753486</v>
+        <v>22.753485999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>909.055000</v>
+        <v>909.05499999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.897000</v>
+        <v>-195.89699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>81923.039296</v>
+        <v>81923.039296000003</v>
       </c>
       <c r="G25" s="1">
-        <v>22.756400</v>
+        <v>22.756399999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>926.158000</v>
+        <v>926.15800000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.090000</v>
+        <v>-167.09</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>81933.477602</v>
+        <v>81933.477601999999</v>
       </c>
       <c r="L25" s="1">
-        <v>22.759299</v>
+        <v>22.759298999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>949.560000</v>
+        <v>949.56</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.947000</v>
+        <v>-119.947</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>81944.034453</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.762232</v>
+        <v>22.762232000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>956.345000</v>
+        <v>956.34500000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.716000</v>
+        <v>-104.71599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>81954.475735</v>
       </c>
       <c r="V25" s="1">
-        <v>22.765132</v>
+        <v>22.765132000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>963.014000</v>
+        <v>963.01400000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.784000</v>
+        <v>-90.784000000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>81965.044520</v>
+        <v>81965.044519999996</v>
       </c>
       <c r="AA25" s="1">
         <v>22.768068</v>
       </c>
       <c r="AB25" s="1">
-        <v>970.643000</v>
+        <v>970.64300000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-81.040900</v>
+        <v>-81.040899999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>81975.550283</v>
+        <v>81975.550283000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.770986</v>
+        <v>22.770986000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>975.740000</v>
+        <v>975.74</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.403000</v>
+        <v>-80.403000000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>81986.109085</v>
+        <v>81986.109085000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.773919</v>
+        <v>22.773918999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>983.762000</v>
+        <v>983.76199999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.831300</v>
+        <v>-87.831299999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>81997.099935</v>
+        <v>81997.099935000006</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.776972</v>
+        <v>22.776972000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>992.983000</v>
+        <v>992.98299999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.531000</v>
+        <v>-102.53100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>82007.883954</v>
+        <v>82007.883954000004</v>
       </c>
       <c r="AU25" s="1">
         <v>22.779968</v>
       </c>
       <c r="AV25" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.808000</v>
+        <v>-123.80800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>82018.499826</v>
+        <v>82018.499825999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.782917</v>
+        <v>22.782917000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1013.960000</v>
+        <v>1013.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.396000</v>
+        <v>-142.39599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>82029.637027</v>
+        <v>82029.637027000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.786010</v>
+        <v>22.786010000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.544000</v>
+        <v>-226.54400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>82040.232038</v>
+        <v>82040.232038000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.788953</v>
+        <v>22.788952999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1138.690000</v>
+        <v>1138.69</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.271000</v>
+        <v>-361.27100000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>82050.863784</v>
+        <v>82050.863784000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.791907</v>
+        <v>22.791906999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1269.930000</v>
+        <v>1269.93</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-568.738000</v>
+        <v>-568.73800000000006</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>82061.966247</v>
+        <v>82061.966247000004</v>
       </c>
       <c r="BT25" s="1">
         <v>22.794991</v>
       </c>
       <c r="BU25" s="1">
-        <v>1416.480000</v>
+        <v>1416.48</v>
       </c>
       <c r="BV25" s="1">
-        <v>-790.170000</v>
+        <v>-790.17</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>82072.792410</v>
+        <v>82072.792409999995</v>
       </c>
       <c r="BY25" s="1">
         <v>22.797998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1577.110000</v>
+        <v>1577.11</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1020.190000</v>
+        <v>-1020.19</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>82086.055929</v>
+        <v>82086.055928999995</v>
       </c>
       <c r="CD25" s="1">
         <v>22.801682</v>
       </c>
       <c r="CE25" s="1">
-        <v>1980.600000</v>
+        <v>1980.6</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1558.870000</v>
+        <v>-1558.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>81912.894163</v>
+        <v>81912.894163000004</v>
       </c>
       <c r="B26" s="1">
-        <v>22.753582</v>
+        <v>22.753582000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>909.043000</v>
+        <v>909.04300000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.813000</v>
+        <v>-195.81299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>81923.384549</v>
+        <v>81923.384548999995</v>
       </c>
       <c r="G26" s="1">
-        <v>22.756496</v>
+        <v>22.756495999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>926.187000</v>
+        <v>926.18700000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.225000</v>
+        <v>-166.22499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>81933.825794</v>
+        <v>81933.825794000004</v>
       </c>
       <c r="L26" s="1">
-        <v>22.759396</v>
+        <v>22.759395999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>949.372000</v>
+        <v>949.37199999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.090000</v>
+        <v>-120.09</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>81944.696148</v>
+        <v>81944.696148000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.762416</v>
+        <v>22.762416000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>956.327000</v>
+        <v>956.327</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.707000</v>
+        <v>-104.70699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>81955.152775</v>
+        <v>81955.152774999995</v>
       </c>
       <c r="V26" s="1">
-        <v>22.765320</v>
+        <v>22.765319999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>963.102000</v>
+        <v>963.10199999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.851400</v>
+        <v>-90.851399999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>81965.425468</v>
+        <v>81965.425468000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.768174</v>
+        <v>22.768173999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>970.699000</v>
+        <v>970.69899999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.968300</v>
+        <v>-80.968299999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>81975.892490</v>
+        <v>81975.892489999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.771081</v>
+        <v>22.771080999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>975.734000</v>
+        <v>975.73400000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.389700</v>
+        <v>-80.389700000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>81986.459756</v>
+        <v>81986.459755999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.774017</v>
+        <v>22.774017000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>983.732000</v>
+        <v>983.73199999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.841500</v>
+        <v>-87.841499999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>81997.461527</v>
+        <v>81997.461527000007</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.777073</v>
+        <v>22.777073000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>992.956000</v>
+        <v>992.95600000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.485000</v>
+        <v>-102.485</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>82008.308561</v>
+        <v>82008.308560999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.780086</v>
+        <v>22.780086000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>82018.929363</v>
+        <v>82018.929363000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.783036</v>
+        <v>22.783035999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1013.950000</v>
+        <v>1013.95</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.379000</v>
+        <v>-142.37899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>82029.926691</v>
+        <v>82029.926691000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.786091</v>
+        <v>22.786090999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1059.240000</v>
+        <v>1059.24</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.535000</v>
+        <v>-226.535</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>82040.586182</v>
+        <v>82040.586181999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.789052</v>
+        <v>22.789052000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1138.700000</v>
+        <v>1138.7</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.204000</v>
+        <v>-361.20400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>82051.285384</v>
+        <v>82051.285384000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.792024</v>
+        <v>22.792024000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-568.743000</v>
+        <v>-568.74300000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>82062.377913</v>
+        <v>82062.377913000004</v>
       </c>
       <c r="BT26" s="1">
         <v>22.795105</v>
       </c>
       <c r="BU26" s="1">
-        <v>1416.600000</v>
+        <v>1416.6</v>
       </c>
       <c r="BV26" s="1">
-        <v>-790.158000</v>
+        <v>-790.15800000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>82073.219465</v>
+        <v>82073.219465000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.798117</v>
+        <v>22.798117000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1577.100000</v>
+        <v>1577.1</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1020.050000</v>
+        <v>-1020.05</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>82086.570280</v>
+        <v>82086.57028</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.801825</v>
+        <v>22.801825000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1980.760000</v>
+        <v>1980.76</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1558.760000</v>
+        <v>-1558.76</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>